--- a/Database/Zapp db.xlsx
+++ b/Database/Zapp db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\educom-ZAPP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A57A8824-CB68-4912-9C38-0ABFFA097AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D6C12F-C186-4611-80C6-FF2E672A5280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A88AF04C-2AC7-4BDC-8C69-48F929385809}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>Takenlijst</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>takenclient_id</t>
+  </si>
+  <si>
+    <t>extra_info</t>
   </si>
 </sst>
 </file>
@@ -646,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C368DC-3128-468E-B8A9-2E8F0A471458}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,7 +763,7 @@
         <v>8</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>1</v>
